--- a/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>GPOX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,13 +745,16 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,13 +964,14 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -967,8 +994,11 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1049,8 +1086,8 @@
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1058,8 +1095,8 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,13 +1136,16 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1125,8 +1168,11 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,13 +1232,16 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1212,13 +1264,16 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1241,8 +1296,11 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,13 +1456,16 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1415,8 +1488,11 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,13 +1520,16 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1473,42 +1552,48 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,16 +1619,17 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>4</v>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,16 +1681,19 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,16 +1841,19 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,17 +2033,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,13 +2095,14 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,8 +2157,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2032,10 +2169,10 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2052,19 +2189,22 @@
       <c r="K59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,19 +2381,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,16 +2555,19 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-200</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-100</v>
       </c>
       <c r="F72" s="3">
         <v>-100</v>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,19 +2683,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,47 +2747,53 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -2621,8 +2816,11 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,13 +3022,16 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,16 +3070,17 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,13 +3164,16 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -2951,14 +3181,14 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,17 +3338,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>GPOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,68 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>600</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -748,16 +752,19 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -780,16 +787,19 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,17 +991,18 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
@@ -997,16 +1024,19 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1029,8 +1059,11 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,13 +1076,14 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1075,22 +1109,25 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1098,8 +1135,8 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,17 +1179,20 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
@@ -1171,8 +1214,11 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,17 +1284,20 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
@@ -1267,17 +1319,20 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
@@ -1299,8 +1354,11 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,13 +1494,16 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1459,17 +1529,20 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1564,11 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,17 +1599,20 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
@@ -1555,45 +1634,51 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1706,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1631,8 +1718,8 @@
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
+      <c r="F41" s="3">
+        <v>0</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>4</v>
@@ -1652,8 +1739,11 @@
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1774,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1695,8 +1788,8 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,13 +1879,16 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1949,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1855,8 +1963,8 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,20 +2159,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,17 +2226,18 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
@@ -2128,8 +2259,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,22 +2294,25 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -2192,22 +2329,25 @@
       <c r="L59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2399,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,22 +2539,25 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,13 +2659,16 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,19 +2729,22 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-200</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-100</v>
       </c>
       <c r="G72" s="3">
         <v>-100</v>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,22 +2869,25 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,54 +2939,60 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
@@ -2819,8 +3014,11 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3239,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3034,7 +3251,7 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,19 +3291,20 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,16 +3394,19 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3184,14 +3414,14 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,20 +3584,23 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -3373,8 +3619,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3654,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,6 +3687,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>GPOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,82 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -755,22 +762,28 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -790,8 +803,14 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,11 +820,11 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -825,8 +844,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +865,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +943,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +984,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,23 +1043,25 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1027,23 +1080,29 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1062,8 +1121,14 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1142,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,66 +1179,78 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1182,23 +1261,29 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1217,8 +1302,14 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1343,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,23 +1384,29 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1322,23 +1425,29 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1357,8 +1466,14 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1630,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,23 +1671,29 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1567,8 +1712,14 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,23 +1753,29 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1637,48 +1794,60 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,13 +1878,15 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1721,11 +1894,11 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
@@ -1742,8 +1915,14 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1956,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1791,11 +1976,11 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -1812,8 +1997,14 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,13 +2038,19 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1882,20 +2079,26 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -1917,8 +2120,14 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2161,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1966,11 +2181,11 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -1987,8 +2202,14 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2243,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2325,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2366,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,13 +2407,19 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2180,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -2197,8 +2448,14 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,23 +2486,25 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -2262,31 +2523,37 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2297,28 +2564,34 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -2332,13 +2605,19 @@
       <c r="M59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>3900</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -2347,13 +2626,13 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -2367,8 +2646,14 @@
       <c r="M60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2687,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2728,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,13 +2851,19 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>3900</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -2557,13 +2872,13 @@
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -2577,8 +2892,14 @@
       <c r="M66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,19 +2991,25 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E70" s="3">
         <v>200</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2697,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,25 +3073,31 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-100</v>
       </c>
       <c r="I72" s="3">
         <v>-100</v>
@@ -2767,8 +3114,14 @@
       <c r="M72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,28 +3237,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -2907,8 +3278,14 @@
       <c r="M76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,63 +3319,75 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3017,8 +3406,14 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,31 +3427,33 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3067,8 +3464,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,22 +3669,28 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -3277,8 +3710,14 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,25 +3731,27 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -3327,8 +3768,14 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3850,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,26 +4072,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3622,8 +4113,14 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,13 +4154,19 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3690,6 +4193,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>GPOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -768,25 +772,28 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -809,25 +816,28 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,26 +1071,27 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>19400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1086,26 +1113,29 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,31 +1219,34 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-19100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1217,8 +1254,8 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -1226,16 +1263,19 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1252,8 +1292,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1267,26 +1307,29 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
       </c>
       <c r="G23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1308,8 +1351,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,26 +1439,29 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
       </c>
       <c r="G26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1431,26 +1483,29 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
       </c>
       <c r="G27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,26 +1747,29 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
       </c>
       <c r="G33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,26 +1835,29 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
       </c>
       <c r="G35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1800,54 +1879,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,17 +1966,18 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -1900,8 +1987,8 @@
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,13 +2052,16 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1982,8 +2075,8 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,17 +2140,20 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2085,23 +2184,26 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2187,8 +2295,8 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,29 +2536,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2500,14 +2631,14 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -2529,17 +2660,20 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2555,8 +2689,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2570,31 +2704,34 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -2611,31 +2748,34 @@
       <c r="O59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,31 +3012,34 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3006,13 +3174,13 @@
         <v>2000</v>
       </c>
       <c r="E70" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="F70" s="3">
         <v>200</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,28 +3250,31 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-100</v>
       </c>
       <c r="J72" s="3">
         <v>-100</v>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,31 +3426,34 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,72 +3514,78 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
       </c>
       <c r="G81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,16 +3627,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -3455,8 +3654,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3684,7 +3901,7 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -3693,7 +3910,7 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,28 +3953,29 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3867,14 +4097,14 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3882,14 +4112,14 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,29 +4321,32 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,17 +4409,20 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>GPOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,19 +791,19 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -819,28 +826,31 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,29 +1098,30 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1116,29 +1143,32 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,34 +1256,37 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-19100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1257,8 +1294,8 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,10 +1315,10 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1295,8 +1335,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1310,29 +1350,32 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-300</v>
       </c>
       <c r="G23" s="3">
         <v>-300</v>
       </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1397,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,29 +1491,32 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-300</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
       </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1486,29 +1538,32 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-300</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,29 +1820,32 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-300</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,29 +1914,32 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-300</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,20 +2053,21 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -1990,8 +2077,8 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,7 +2157,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2078,8 +2171,8 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,20 +2239,23 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2187,26 +2286,29 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2298,8 +2406,8 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,32 +2662,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2634,14 +2765,14 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,11 +2806,11 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2692,8 +2826,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2707,34 +2841,37 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>5800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3600</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -2751,34 +2888,37 @@
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,34 +3170,37 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3177,13 +3345,13 @@
         <v>2000</v>
       </c>
       <c r="F70" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G70" s="3">
         <v>200</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,31 +3424,34 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-100</v>
       </c>
       <c r="K72" s="3">
         <v>-100</v>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,34 +3612,37 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,78 +3706,84 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-300</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3639,8 +3838,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -3657,8 +3856,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,19 +4106,22 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -3913,7 +4130,7 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3965,20 +4186,20 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4100,14 +4330,14 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4115,14 +4345,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,32 +4567,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,11 +4673,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>GPOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,90 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>400</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -753,14 +760,14 @@
         <v>200</v>
       </c>
       <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -782,34 +789,40 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -829,19 +842,25 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -852,11 +871,11 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,31 +1075,37 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,35 +1150,37 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>7100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>19400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1146,35 +1199,41 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-19000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1193,8 +1252,14 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,13 +1277,15 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1259,72 +1326,84 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-19100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1338,11 +1417,11 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1353,35 +1432,41 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-19100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1400,8 +1485,14 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,35 +1591,41 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-19100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1541,35 +1644,41 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-19100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1588,8 +1697,14 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,13 +1909,19 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1823,35 +1962,41 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-19100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1870,8 +2015,14 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,35 +2068,41 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-19100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -1964,60 +2121,72 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,13 +2225,15 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2072,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2080,11 +2253,11 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
@@ -2101,8 +2274,14 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,23 +2327,29 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2174,11 +2359,11 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2195,31 +2380,37 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2251,17 +2448,17 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2289,32 +2486,38 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2336,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2409,11 +2624,11 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2430,31 +2645,37 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,25 +2910,31 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>500</v>
+      </c>
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -2695,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -2712,8 +2963,14 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,16 +3009,18 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -2768,17 +3029,17 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -2797,26 +3058,32 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2829,11 +3096,11 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2844,40 +3111,46 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -2891,25 +3164,31 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -2918,13 +3197,13 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -2938,8 +3217,14 @@
       <c r="Q60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,25 +3482,31 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -3200,13 +3515,13 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
@@ -3220,8 +3535,14 @@
       <c r="Q66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3348,17 +3683,17 @@
         <v>2000</v>
       </c>
       <c r="G70" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H70" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I70" s="3">
         <v>200</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>200</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,37 +3768,43 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-29900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-23100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-20000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-100</v>
       </c>
       <c r="M72" s="3">
         <v>-100</v>
@@ -3474,8 +3821,14 @@
       <c r="Q72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,40 +3980,46 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-8200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
@@ -3662,8 +4033,14 @@
       <c r="Q76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,87 +4086,99 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-19100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3808,8 +4197,14 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3841,11 +4238,11 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -3859,11 +4256,11 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,34 +4536,40 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4156,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4189,23 +4630,23 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4333,38 +4792,44 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,38 +5055,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4673,17 +5176,17 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>GPOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
@@ -766,14 +774,14 @@
         <v>200</v>
       </c>
       <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -795,40 +803,46 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -848,25 +862,31 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -877,11 +897,11 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,19 +1121,25 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1107,11 +1153,11 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,41 +1204,43 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>19400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1205,41 +1259,47 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-700</v>
       </c>
       <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-19000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1318,14 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1345,15 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1332,84 +1400,96 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-700</v>
       </c>
       <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-6700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-19100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1423,11 +1503,11 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1438,41 +1518,47 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-19100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1577,14 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,41 +1695,47 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-19100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1650,41 +1754,47 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-19100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1703,8 +1813,14 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +2049,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1968,41 +2108,47 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-19100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2167,14 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,41 +2226,47 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-19100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2127,66 +2285,78 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,19 +2399,21 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2251,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2259,11 +2433,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
@@ -2280,8 +2454,14 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2345,17 +2531,17 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -2365,11 +2551,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2386,19 +2572,25 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -2412,11 +2604,11 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2439,13 +2631,19 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
@@ -2454,17 +2652,17 @@
         <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -2492,8 +2690,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,29 +2705,29 @@
         <v>400</v>
       </c>
       <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <v>400</v>
+      </c>
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2545,8 +2749,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,13 +2808,19 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2630,11 +2846,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2651,19 +2867,25 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -2677,11 +2899,11 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,31 +3162,37 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -2952,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -2969,8 +3221,14 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,22 +3271,24 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3035,17 +3297,17 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
@@ -3064,32 +3326,38 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3102,11 +3370,11 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3117,8 +3385,14 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3129,34 +3403,34 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -3170,31 +3444,37 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -3203,13 +3483,13 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -3223,8 +3503,14 @@
       <c r="S60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,31 +3798,37 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -3521,13 +3837,13 @@
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -3541,8 +3857,14 @@
       <c r="S66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3689,17 +4025,17 @@
         <v>2000</v>
       </c>
       <c r="I70" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K70" s="3">
         <v>200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,43 +4116,49 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-30800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-30500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-29900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-23100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-20000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-100</v>
       </c>
       <c r="O72" s="3">
         <v>-100</v>
@@ -3827,8 +4175,14 @@
       <c r="S72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,46 +4352,52 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-8200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
@@ -4039,8 +4411,14 @@
       <c r="S76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,99 +4470,111 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-19100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4203,8 +4593,14 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4244,11 +4642,11 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4262,11 +4660,11 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,40 +4970,46 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4595,8 +5029,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4636,23 +5078,23 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4798,38 +5258,44 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,44 +5547,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>300</v>
+      </c>
+      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5665,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5176,23 +5680,23 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>GPOX</t>
   </si>
@@ -5063,26 +5063,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>GPOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,129 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -809,43 +812,46 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -868,43 +874,46 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,13 +1146,16 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1141,8 +1163,8 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -1159,8 +1181,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,43 +1231,44 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -1265,44 +1291,47 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1324,8 +1353,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,13 +1379,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1406,49 +1439,52 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-19100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
+      <c r="P21" s="3">
+        <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
@@ -1456,8 +1492,8 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
@@ -1465,22 +1501,25 @@
       <c r="U21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1489,10 +1528,10 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1509,8 +1548,8 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1524,44 +1563,47 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1583,8 +1625,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,44 +1749,47 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1760,44 +1811,47 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1819,8 +1873,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,13 +2121,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2114,44 +2183,47 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2173,8 +2245,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,44 +2307,47 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2291,72 +2369,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,34 +2486,35 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2439,8 +2525,8 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
@@ -2460,8 +2546,11 @@
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2537,13 +2629,13 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2557,8 +2649,8 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2578,13 +2670,16 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -2592,8 +2687,8 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -2610,8 +2705,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2637,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2646,25 +2744,25 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2696,40 +2794,43 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
-      </c>
-      <c r="F46" s="3">
-        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
+        <v>400</v>
+      </c>
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2755,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2823,7 +2930,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2852,8 +2959,8 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2873,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2887,8 +2997,8 @@
       <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -2905,8 +3015,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3177,37 +3302,37 @@
         <v>600</v>
       </c>
       <c r="E54" s="3">
+        <v>600</v>
+      </c>
+      <c r="F54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>500</v>
       </c>
       <c r="H54" s="3">
         <v>500</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -3227,8 +3352,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,25 +3402,26 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3303,13 +3433,13 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3332,34 +3462,37 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -3376,8 +3509,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3391,13 +3524,16 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -3409,31 +3545,31 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -3450,49 +3586,52 @@
       <c r="U59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1300</v>
       </c>
       <c r="F60" s="3">
         <v>1300</v>
       </c>
       <c r="G60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
       <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
-        <v>100</v>
-      </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -3509,8 +3648,11 @@
       <c r="U60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,49 +3958,52 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1300</v>
       </c>
       <c r="F66" s="3">
         <v>1300</v>
       </c>
       <c r="G66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
-        <v>100</v>
-      </c>
       <c r="M66" s="3">
+        <v>100</v>
+      </c>
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
-        <v>100</v>
-      </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
@@ -3863,8 +4020,11 @@
       <c r="U66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4031,13 +4198,13 @@
         <v>2000</v>
       </c>
       <c r="K70" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="L70" s="3">
         <v>200</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,46 +4292,49 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-100</v>
       </c>
       <c r="P72" s="3">
         <v>-100</v>
@@ -4181,8 +4354,11 @@
       <c r="U72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,49 +4540,52 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-8200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
@@ -4417,8 +4602,11 @@
       <c r="U76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,108 +4664,114 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -4599,8 +4793,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4648,8 +4846,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -4666,8 +4864,8 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,34 +5189,37 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -5012,7 +5228,7 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5035,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5087,17 +5307,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5264,14 +5493,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5279,14 +5508,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5294,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5562,37 +5807,37 @@
         <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5612,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,34 +5919,37 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -5728,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GPOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>GPOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,136 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -815,46 +819,49 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -877,46 +884,49 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,13 +1169,16 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1166,8 +1189,8 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1184,8 +1207,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,46 +1258,47 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>1900</v>
       </c>
       <c r="E17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1294,47 +1321,50 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-900</v>
       </c>
       <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,13 +1413,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1442,52 +1476,55 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-900</v>
       </c>
       <c r="E21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-19100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
+      <c r="Q21" s="3">
+        <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
@@ -1495,8 +1532,8 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
@@ -1504,25 +1541,28 @@
       <c r="V21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1531,10 +1571,10 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1551,8 +1591,8 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1566,47 +1606,50 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-1200</v>
       </c>
       <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,47 +1801,50 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-1200</v>
       </c>
       <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1814,47 +1866,50 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-1200</v>
       </c>
       <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,13 +2191,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2186,47 +2256,50 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-1200</v>
       </c>
       <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,47 +2386,50 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-1200</v>
       </c>
       <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,28 +2583,28 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2528,8 +2615,8 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,13 +2701,16 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2632,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2652,8 +2745,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2682,7 +2778,7 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2690,8 +2786,8 @@
       <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2708,8 +2804,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2747,25 +2846,25 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2797,43 +2896,46 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>400</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
       </c>
       <c r="I46" s="3">
+        <v>400</v>
+      </c>
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,19 +3026,22 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2962,8 +3070,8 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3000,8 +3111,8 @@
       <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -3018,8 +3129,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,49 +3416,52 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E54" s="3">
         <v>600</v>
       </c>
       <c r="F54" s="3">
+        <v>600</v>
+      </c>
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>500</v>
       </c>
       <c r="I54" s="3">
         <v>500</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,28 +3533,29 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -3436,13 +3567,13 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3465,37 +3596,40 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3512,8 +3646,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3527,16 +3661,19 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -3548,31 +3685,31 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3589,52 +3726,55 @@
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="E60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1300</v>
       </c>
       <c r="G60" s="3">
         <v>1300</v>
       </c>
       <c r="H60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
       <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,52 +4116,55 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1300</v>
       </c>
       <c r="G66" s="3">
         <v>1300</v>
       </c>
       <c r="H66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
       <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
-        <v>100</v>
-      </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4201,13 +4369,13 @@
         <v>2000</v>
       </c>
       <c r="L70" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="M70" s="3">
         <v>200</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,49 +4466,52 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-30500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-100</v>
       </c>
       <c r="Q72" s="3">
         <v>-100</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,52 +4726,55 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1900</v>
+        <v>-4400</v>
       </c>
       <c r="E76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
       <c r="Q76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,114 +4856,120 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-1200</v>
       </c>
       <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4849,8 +5048,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -4867,8 +5066,8 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,37 +5406,40 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-300</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -5231,7 +5448,7 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5310,17 +5531,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5496,14 +5726,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5511,14 +5741,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,49 +6041,52 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>400</v>
       </c>
       <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,37 +6171,40 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>
